--- a/prediction.xlsx
+++ b/prediction.xlsx
@@ -552,7 +552,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -621,7 +621,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -690,7 +690,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -759,7 +759,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -897,7 +897,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -966,7 +966,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -997,10 +997,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2070,7 +2070,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -3394,7 +3394,7 @@
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -3610,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -3933,7 +3933,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -4278,7 +4278,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -4507,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -4705,7 +4705,7 @@
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -4830,7 +4830,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -4899,7 +4899,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -4921,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
@@ -4968,7 +4968,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -5106,7 +5106,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -5128,13 +5128,13 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -5197,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -5260,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -5275,10 +5275,10 @@
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -5382,7 +5382,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -5451,7 +5451,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -5520,7 +5520,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -5749,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -5818,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -5878,7 +5878,7 @@
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -5934,7 +5934,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
@@ -6072,7 +6072,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -6163,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
@@ -6210,7 +6210,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -6223,7 +6223,7 @@
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -6279,7 +6279,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -6348,7 +6348,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
@@ -6417,7 +6417,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -6486,7 +6486,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -6508,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
@@ -6555,7 +6555,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -6624,7 +6624,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -6762,7 +6762,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -6969,7 +6969,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -7003,7 +7003,7 @@
         <v>0</v>
       </c>
       <c r="P95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q95" t="n">
         <v>0</v>
@@ -7038,7 +7038,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -7107,7 +7107,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -7138,10 +7138,10 @@
         <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q97" t="n">
         <v>0</v>
@@ -7176,7 +7176,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -7245,7 +7245,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -7314,7 +7314,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -7452,7 +7452,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -7521,7 +7521,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -7590,7 +7590,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -7603,7 +7603,7 @@
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -7659,7 +7659,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -7687,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O105" t="n">
         <v>0</v>
@@ -7728,7 +7728,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
@@ -7797,7 +7797,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -7819,7 +7819,7 @@
         <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
@@ -7866,7 +7866,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -7935,7 +7935,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -7957,13 +7957,13 @@
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O109" t="n">
         <v>0</v>
@@ -8004,7 +8004,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -8035,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="O110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P110" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -8107,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="P111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q111" t="n">
         <v>0</v>
@@ -8142,7 +8142,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -8280,7 +8280,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -8302,7 +8302,7 @@
         <v>0</v>
       </c>
       <c r="L114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M114" t="n">
         <v>0</v>
@@ -8349,7 +8349,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M115" t="n">
         <v>0</v>
@@ -8418,7 +8418,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -8487,7 +8487,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -8556,7 +8556,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
@@ -8625,7 +8625,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -8647,7 +8647,7 @@
         <v>0</v>
       </c>
       <c r="L119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M119" t="n">
         <v>0</v>
@@ -8659,7 +8659,7 @@
         <v>0</v>
       </c>
       <c r="P119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q119" t="n">
         <v>0</v>
@@ -8694,7 +8694,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -8707,7 +8707,7 @@
       </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -8763,7 +8763,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -8794,7 +8794,7 @@
         <v>0</v>
       </c>
       <c r="O121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P121" t="n">
         <v>0</v>
@@ -8832,7 +8832,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -8854,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="L122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M122" t="n">
         <v>0</v>
@@ -8901,7 +8901,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -8929,16 +8929,16 @@
         <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P123" t="n">
         <v>0</v>
       </c>
       <c r="Q123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R123" t="n">
         <v>0</v>
@@ -8970,7 +8970,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -9130,7 +9130,7 @@
         <v>0</v>
       </c>
       <c r="L126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M126" t="n">
         <v>0</v>
@@ -9177,7 +9177,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -9246,7 +9246,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -9315,7 +9315,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -9384,7 +9384,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K130" t="n">
         <v>0</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M130" t="n">
         <v>0</v>
@@ -9415,10 +9415,10 @@
         <v>0</v>
       </c>
       <c r="O130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q130" t="n">
         <v>0</v>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -9522,7 +9522,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -9544,7 +9544,7 @@
         <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M132" t="n">
         <v>0</v>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -9613,7 +9613,7 @@
         <v>0</v>
       </c>
       <c r="L133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M133" t="n">
         <v>0</v>
@@ -9660,7 +9660,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -9729,7 +9729,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -9798,7 +9798,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -9867,7 +9867,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M137" t="n">
         <v>0</v>
@@ -9901,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="P137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q137" t="n">
         <v>0</v>
@@ -9936,7 +9936,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -9958,7 +9958,7 @@
         <v>0</v>
       </c>
       <c r="L138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M138" t="n">
         <v>0</v>
@@ -10005,7 +10005,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -10018,7 +10018,7 @@
       </c>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="n">
         <v>0</v>
@@ -10074,7 +10074,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -10143,7 +10143,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -10225,7 +10225,7 @@
       </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="n">
         <v>0</v>
@@ -10281,7 +10281,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -10350,7 +10350,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="L144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M144" t="n">
         <v>0</v>
@@ -10419,7 +10419,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -10488,7 +10488,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -10510,7 +10510,7 @@
         <v>0</v>
       </c>
       <c r="L146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M146" t="n">
         <v>0</v>
@@ -10557,7 +10557,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -10579,7 +10579,7 @@
         <v>0</v>
       </c>
       <c r="L147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M147" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="P147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q147" t="n">
         <v>0</v>
@@ -10626,7 +10626,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -10648,7 +10648,7 @@
         <v>0</v>
       </c>
       <c r="L148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M148" t="n">
         <v>0</v>
@@ -10695,7 +10695,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -10708,7 +10708,7 @@
       </c>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
@@ -10764,7 +10764,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -10833,7 +10833,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F151" t="n">
@@ -10864,7 +10864,7 @@
         <v>0</v>
       </c>
       <c r="O151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P151" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -10924,7 +10924,7 @@
         <v>0</v>
       </c>
       <c r="L152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M152" t="n">
         <v>0</v>
@@ -10971,7 +10971,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F153" t="n">
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="L153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M153" t="n">
         <v>0</v>
@@ -11040,7 +11040,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F154" t="n">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="n">
         <v>0</v>
@@ -11109,7 +11109,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F155" t="n">
@@ -11125,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K155" t="n">
         <v>0</v>
@@ -11140,13 +11140,13 @@
         <v>0</v>
       </c>
       <c r="O155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P155" t="n">
         <v>0</v>
       </c>
       <c r="Q155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R155" t="n">
         <v>0</v>
@@ -11178,7 +11178,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -11247,7 +11247,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -11329,7 +11329,7 @@
       </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
@@ -11385,7 +11385,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -11407,7 +11407,7 @@
         <v>0</v>
       </c>
       <c r="L159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M159" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -11523,7 +11523,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -11592,7 +11592,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -11661,7 +11661,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -11683,7 +11683,7 @@
         <v>0</v>
       </c>
       <c r="L163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M163" t="n">
         <v>0</v>
@@ -11730,7 +11730,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -11752,7 +11752,7 @@
         <v>0</v>
       </c>
       <c r="L164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M164" t="n">
         <v>0</v>
@@ -11799,7 +11799,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -11868,7 +11868,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -11890,7 +11890,7 @@
         <v>0</v>
       </c>
       <c r="L166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M166" t="n">
         <v>0</v>
@@ -11937,7 +11937,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -11968,7 +11968,7 @@
         <v>0</v>
       </c>
       <c r="O167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P167" t="n">
         <v>0</v>
@@ -12006,7 +12006,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -12028,7 +12028,7 @@
         <v>0</v>
       </c>
       <c r="L168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M168" t="n">
         <v>0</v>
@@ -12075,7 +12075,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -12144,7 +12144,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -12172,7 +12172,7 @@
         <v>0</v>
       </c>
       <c r="N170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O170" t="n">
         <v>0</v>
@@ -12213,7 +12213,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -12226,7 +12226,7 @@
       </c>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="n">
         <v>0</v>
@@ -12282,7 +12282,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -12420,7 +12420,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -12489,7 +12489,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -12558,7 +12558,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -12571,7 +12571,7 @@
       </c>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="n">
         <v>0</v>
@@ -12627,7 +12627,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -12643,7 +12643,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K177" t="n">
         <v>0</v>
@@ -12658,10 +12658,10 @@
         <v>0</v>
       </c>
       <c r="O177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q177" t="n">
         <v>0</v>
@@ -12696,7 +12696,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -12709,7 +12709,7 @@
       </c>
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="n">
         <v>0</v>
@@ -12765,7 +12765,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="F179" t="n">
@@ -12834,7 +12834,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="F180" t="n">
@@ -12850,13 +12850,13 @@
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K180" t="n">
         <v>0</v>
       </c>
       <c r="L180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M180" t="n">
         <v>0</v>
@@ -12865,10 +12865,10 @@
         <v>0</v>
       </c>
       <c r="O180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q180" t="n">
         <v>0</v>
@@ -12903,7 +12903,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -12925,7 +12925,7 @@
         <v>0</v>
       </c>
       <c r="L181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M181" t="n">
         <v>0</v>
@@ -12972,7 +12972,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -13041,7 +13041,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -13110,7 +13110,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="F184" t="n">
@@ -13179,7 +13179,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="F185" t="n">
@@ -13195,7 +13195,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K185" t="n">
         <v>0</v>
@@ -13210,7 +13210,7 @@
         <v>0</v>
       </c>
       <c r="O185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P185" t="n">
         <v>0</v>
@@ -13248,7 +13248,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="F186" t="n">
@@ -13270,7 +13270,7 @@
         <v>0</v>
       </c>
       <c r="L186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M186" t="n">
         <v>0</v>
@@ -13282,7 +13282,7 @@
         <v>0</v>
       </c>
       <c r="P186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q186" t="n">
         <v>0</v>
@@ -13317,7 +13317,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -13386,7 +13386,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -13455,7 +13455,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -13524,7 +13524,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -13546,7 +13546,7 @@
         <v>0</v>
       </c>
       <c r="L190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M190" t="n">
         <v>0</v>
@@ -13561,7 +13561,7 @@
         <v>0</v>
       </c>
       <c r="Q190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R190" t="n">
         <v>0</v>
@@ -13593,7 +13593,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -13627,7 +13627,7 @@
         <v>0</v>
       </c>
       <c r="P191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q191" t="n">
         <v>0</v>
@@ -13662,7 +13662,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -13675,7 +13675,7 @@
       </c>
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="n">
         <v>0</v>
@@ -13731,7 +13731,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -13800,7 +13800,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -13869,7 +13869,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -13938,7 +13938,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -14007,7 +14007,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -14076,7 +14076,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -14089,7 +14089,7 @@
       </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="n">
         <v>0</v>
@@ -14145,7 +14145,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -14214,7 +14214,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -14283,7 +14283,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -14352,7 +14352,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -14374,7 +14374,7 @@
         <v>0</v>
       </c>
       <c r="L202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M202" t="n">
         <v>0</v>
@@ -14421,7 +14421,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -14490,7 +14490,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -14521,10 +14521,10 @@
         <v>0</v>
       </c>
       <c r="O204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q204" t="n">
         <v>0</v>
@@ -14559,7 +14559,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -14581,7 +14581,7 @@
         <v>0</v>
       </c>
       <c r="L205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M205" t="n">
         <v>0</v>
@@ -14628,7 +14628,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -14697,7 +14697,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -14766,7 +14766,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -14835,7 +14835,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -14904,7 +14904,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>RyanAir</t>
+          <t>ryanair</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -14973,7 +14973,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>RyanAir</t>
+          <t>ryanair</t>
         </is>
       </c>
       <c r="F211" t="n">
@@ -15042,7 +15042,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>TurkishAirlines</t>
+          <t>turkishairlines</t>
         </is>
       </c>
       <c r="F212" t="n">
@@ -15064,7 +15064,7 @@
         <v>0</v>
       </c>
       <c r="L212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M212" t="n">
         <v>0</v>
@@ -15111,7 +15111,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>TurkishAirlines</t>
+          <t>turkishairlines</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -15133,13 +15133,13 @@
         <v>0</v>
       </c>
       <c r="L213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M213" t="n">
         <v>0</v>
       </c>
       <c r="N213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O213" t="n">
         <v>0</v>
@@ -15180,7 +15180,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>TurkishAirlines</t>
+          <t>turkishairlines</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -15249,7 +15249,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>TurkishAirlines</t>
+          <t>turkishairlines</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -15262,7 +15262,7 @@
       </c>
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="n">
         <v>0</v>
@@ -15318,7 +15318,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>TurkishAirlines</t>
+          <t>turkishairlines</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -15334,19 +15334,19 @@
         <v>0</v>
       </c>
       <c r="J216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K216" t="n">
         <v>0</v>
       </c>
       <c r="L216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M216" t="n">
         <v>0</v>
       </c>
       <c r="N216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O216" t="n">
         <v>0</v>
@@ -15387,7 +15387,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>TurkishAirlines</t>
+          <t>turkishairlines</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -15421,7 +15421,7 @@
         <v>0</v>
       </c>
       <c r="P217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q217" t="n">
         <v>0</v>
@@ -15456,7 +15456,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>TurkishAirlines</t>
+          <t>turkishairlines</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -15525,7 +15525,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>TurkishAirlines</t>
+          <t>turkishairlines</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -15594,7 +15594,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>TurkishAirlines</t>
+          <t>turkishairlines</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -15607,7 +15607,7 @@
       </c>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" t="n">
         <v>0</v>
@@ -15663,7 +15663,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Singapore Airlines</t>
+          <t>singapore airlines</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -15685,13 +15685,13 @@
         <v>0</v>
       </c>
       <c r="L221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M221" t="n">
         <v>0</v>
       </c>
       <c r="N221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O221" t="n">
         <v>0</v>
@@ -15732,7 +15732,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Brussels Airlines</t>
+          <t>brussels airlines</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -15801,7 +15801,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Brussels Airlines</t>
+          <t>brussels airlines</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -15823,7 +15823,7 @@
         <v>0</v>
       </c>
       <c r="L223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M223" t="n">
         <v>0</v>
@@ -15870,7 +15870,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Brussels Airlines</t>
+          <t>brussels airlines</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -15939,7 +15939,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Brussels Airlines</t>
+          <t>brussels airlines</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -16008,7 +16008,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Brussels Airlines</t>
+          <t>brussels airlines</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -16077,7 +16077,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Brussels Airlines</t>
+          <t>brussels airlines</t>
         </is>
       </c>
       <c r="F227" t="n">
@@ -16099,19 +16099,19 @@
         <v>0</v>
       </c>
       <c r="L227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M227" t="n">
         <v>0</v>
       </c>
       <c r="N227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q227" t="n">
         <v>0</v>
@@ -16146,7 +16146,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Brussels Airlines</t>
+          <t>brussels airlines</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -16174,7 +16174,7 @@
         <v>0</v>
       </c>
       <c r="N228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O228" t="n">
         <v>0</v>
@@ -16215,7 +16215,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Brussels Airlines</t>
+          <t>brussels airlines</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -16284,7 +16284,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Brussels Airlines</t>
+          <t>brussels airlines</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -16306,7 +16306,7 @@
         <v>0</v>
       </c>
       <c r="L230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M230" t="n">
         <v>0</v>
@@ -16353,7 +16353,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Air Serbia</t>
+          <t>air serbia</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -16375,7 +16375,7 @@
         <v>0</v>
       </c>
       <c r="L231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M231" t="n">
         <v>0</v>
@@ -16422,7 +16422,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -16491,7 +16491,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="F233" t="n">
@@ -16560,7 +16560,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -16582,7 +16582,7 @@
         <v>0</v>
       </c>
       <c r="L234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M234" t="n">
         <v>0</v>
@@ -16629,7 +16629,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="F235" t="n">
@@ -16698,7 +16698,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="F236" t="n">
@@ -16767,7 +16767,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="F237" t="n">
@@ -16780,7 +16780,7 @@
       </c>
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" t="n">
         <v>0</v>
@@ -16836,7 +16836,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="F238" t="n">
@@ -16858,7 +16858,7 @@
         <v>0</v>
       </c>
       <c r="L238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M238" t="n">
         <v>0</v>
@@ -16905,7 +16905,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="F239" t="n">
@@ -16974,7 +16974,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="F240" t="n">
@@ -17043,7 +17043,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="F241" t="n">
@@ -17065,7 +17065,7 @@
         <v>0</v>
       </c>
       <c r="L241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M241" t="n">
         <v>0</v>
@@ -17112,7 +17112,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="F242" t="n">
@@ -17125,7 +17125,7 @@
       </c>
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242" t="n">
         <v>0</v>
@@ -17181,7 +17181,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="F243" t="n">
@@ -17250,7 +17250,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="F244" t="n">
@@ -17272,7 +17272,7 @@
         <v>0</v>
       </c>
       <c r="L244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M244" t="n">
         <v>0</v>
@@ -17319,7 +17319,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="F245" t="n">
@@ -17332,7 +17332,7 @@
       </c>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J245" t="n">
         <v>0</v>
@@ -17388,7 +17388,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="F246" t="n">
@@ -17457,7 +17457,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="F247" t="n">
@@ -17526,7 +17526,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="F248" t="n">
@@ -17560,7 +17560,7 @@
         <v>0</v>
       </c>
       <c r="P248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q248" t="n">
         <v>0</v>
@@ -17595,7 +17595,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="F249" t="n">
@@ -17611,7 +17611,7 @@
         <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K249" t="n">
         <v>0</v>
@@ -17626,7 +17626,7 @@
         <v>0</v>
       </c>
       <c r="O249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P249" t="n">
         <v>0</v>
@@ -17664,7 +17664,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="F250" t="n">
@@ -17733,7 +17733,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="F251" t="n">
@@ -17755,7 +17755,7 @@
         <v>0</v>
       </c>
       <c r="L251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M251" t="n">
         <v>0</v>
@@ -17802,7 +17802,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="F252" t="n">
@@ -17824,7 +17824,7 @@
         <v>0</v>
       </c>
       <c r="L252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M252" t="n">
         <v>0</v>
@@ -17871,7 +17871,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="F253" t="n">
@@ -17902,10 +17902,10 @@
         <v>0</v>
       </c>
       <c r="O253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q253" t="n">
         <v>0</v>
@@ -17940,7 +17940,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="F254" t="n">
@@ -17956,7 +17956,7 @@
         <v>0</v>
       </c>
       <c r="J254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K254" t="n">
         <v>0</v>
@@ -17971,7 +17971,7 @@
         <v>0</v>
       </c>
       <c r="O254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P254" t="n">
         <v>0</v>
@@ -18009,7 +18009,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="F255" t="n">
@@ -18031,16 +18031,16 @@
         <v>0</v>
       </c>
       <c r="L255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P255" t="n">
         <v>0</v>
@@ -18078,7 +18078,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="F256" t="n">
@@ -18097,7 +18097,7 @@
         <v>0</v>
       </c>
       <c r="K256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L256" t="n">
         <v>0</v>
@@ -18147,7 +18147,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="F257" t="n">
@@ -18181,7 +18181,7 @@
         <v>0</v>
       </c>
       <c r="P257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q257" t="n">
         <v>0</v>
@@ -18216,7 +18216,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="F258" t="n">
@@ -18285,7 +18285,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="F259" t="n">
@@ -18298,7 +18298,7 @@
       </c>
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J259" t="n">
         <v>0</v>
@@ -18354,7 +18354,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="F260" t="n">
@@ -18367,7 +18367,7 @@
       </c>
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J260" t="n">
         <v>0</v>
@@ -18423,7 +18423,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="F261" t="n">
@@ -18445,16 +18445,16 @@
         <v>0</v>
       </c>
       <c r="L261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N261" t="n">
         <v>0</v>
       </c>
       <c r="O261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P261" t="n">
         <v>0</v>
@@ -18492,7 +18492,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F262" t="n">
@@ -18520,13 +18520,13 @@
         <v>0</v>
       </c>
       <c r="N262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q262" t="n">
         <v>0</v>
@@ -18561,7 +18561,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F263" t="n">
@@ -18577,13 +18577,13 @@
         <v>0</v>
       </c>
       <c r="J263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K263" t="n">
         <v>0</v>
       </c>
       <c r="L263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M263" t="n">
         <v>0</v>
@@ -18592,7 +18592,7 @@
         <v>0</v>
       </c>
       <c r="O263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P263" t="n">
         <v>1</v>
@@ -18630,7 +18630,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F264" t="n">
@@ -18646,19 +18646,19 @@
         <v>0</v>
       </c>
       <c r="J264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K264" t="n">
         <v>0</v>
       </c>
       <c r="L264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M264" t="n">
         <v>0</v>
       </c>
       <c r="N264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O264" t="n">
         <v>1</v>
@@ -18699,7 +18699,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F265" t="n">
@@ -18768,7 +18768,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F266" t="n">
@@ -18784,7 +18784,7 @@
         <v>0</v>
       </c>
       <c r="J266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K266" t="n">
         <v>0</v>
@@ -18799,7 +18799,7 @@
         <v>0</v>
       </c>
       <c r="O266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P266" t="n">
         <v>1</v>
@@ -18837,7 +18837,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F267" t="n">
@@ -18853,7 +18853,7 @@
         <v>0</v>
       </c>
       <c r="J267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K267" t="n">
         <v>0</v>
@@ -18906,7 +18906,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F268" t="n">
@@ -18940,7 +18940,7 @@
         <v>0</v>
       </c>
       <c r="P268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q268" t="n">
         <v>0</v>
@@ -18975,7 +18975,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F269" t="n">
@@ -18991,7 +18991,7 @@
         <v>0</v>
       </c>
       <c r="J269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K269" t="n">
         <v>0</v>
@@ -19006,10 +19006,10 @@
         <v>0</v>
       </c>
       <c r="O269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q269" t="n">
         <v>0</v>
@@ -19044,7 +19044,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F270" t="n">
@@ -19060,7 +19060,7 @@
         <v>0</v>
       </c>
       <c r="J270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K270" t="n">
         <v>0</v>
@@ -19075,10 +19075,10 @@
         <v>0</v>
       </c>
       <c r="O270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q270" t="n">
         <v>0</v>
@@ -19113,7 +19113,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F271" t="n">
@@ -19144,7 +19144,7 @@
         <v>0</v>
       </c>
       <c r="O271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P271" t="n">
         <v>0</v>
@@ -19182,7 +19182,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F272" t="n">
@@ -19204,13 +19204,13 @@
         <v>0</v>
       </c>
       <c r="L272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M272" t="n">
         <v>0</v>
       </c>
       <c r="N272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O272" t="n">
         <v>0</v>
@@ -19251,7 +19251,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F273" t="n">
@@ -19267,7 +19267,7 @@
         <v>0</v>
       </c>
       <c r="J273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K273" t="n">
         <v>0</v>
@@ -19288,7 +19288,7 @@
         <v>0</v>
       </c>
       <c r="Q273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R273" t="n">
         <v>0</v>
@@ -19320,7 +19320,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F274" t="n">
@@ -19342,7 +19342,7 @@
         <v>0</v>
       </c>
       <c r="L274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M274" t="n">
         <v>0</v>
@@ -19351,10 +19351,10 @@
         <v>0</v>
       </c>
       <c r="O274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q274" t="n">
         <v>0</v>
@@ -19389,7 +19389,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F275" t="n">
@@ -19405,7 +19405,7 @@
         <v>0</v>
       </c>
       <c r="J275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K275" t="n">
         <v>0</v>
@@ -19426,7 +19426,7 @@
         <v>0</v>
       </c>
       <c r="Q275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R275" t="n">
         <v>0</v>
@@ -19458,7 +19458,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F276" t="n">
@@ -19480,7 +19480,7 @@
         <v>0</v>
       </c>
       <c r="L276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M276" t="n">
         <v>0</v>
@@ -19527,7 +19527,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F277" t="n">
@@ -19543,7 +19543,7 @@
         <v>0</v>
       </c>
       <c r="J277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K277" t="n">
         <v>0</v>
@@ -19596,7 +19596,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F278" t="n">
@@ -19612,7 +19612,7 @@
         <v>0</v>
       </c>
       <c r="J278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K278" t="n">
         <v>0</v>
@@ -19665,7 +19665,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F279" t="n">
@@ -19699,7 +19699,7 @@
         <v>1</v>
       </c>
       <c r="P279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q279" t="n">
         <v>0</v>
@@ -19734,7 +19734,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F280" t="n">
@@ -19768,7 +19768,7 @@
         <v>1</v>
       </c>
       <c r="P280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q280" t="n">
         <v>0</v>
@@ -19803,7 +19803,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F281" t="n">
@@ -19834,10 +19834,10 @@
         <v>0</v>
       </c>
       <c r="O281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q281" t="n">
         <v>0</v>
@@ -19872,7 +19872,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F282" t="n">
@@ -19941,7 +19941,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F283" t="n">
@@ -20010,7 +20010,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F284" t="n">
@@ -20079,7 +20079,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F285" t="n">
@@ -20095,7 +20095,7 @@
         <v>0</v>
       </c>
       <c r="J285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K285" t="n">
         <v>0</v>
@@ -20110,13 +20110,13 @@
         <v>0</v>
       </c>
       <c r="O285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P285" t="n">
         <v>0</v>
       </c>
       <c r="Q285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R285" t="n">
         <v>0</v>
@@ -20148,7 +20148,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F286" t="n">
@@ -20170,7 +20170,7 @@
         <v>0</v>
       </c>
       <c r="L286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M286" t="n">
         <v>0</v>
@@ -20182,7 +20182,7 @@
         <v>1</v>
       </c>
       <c r="P286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q286" t="n">
         <v>0</v>
@@ -20217,7 +20217,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F287" t="n">
@@ -20286,7 +20286,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F288" t="n">
@@ -20302,7 +20302,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K288" t="n">
         <v>0</v>
@@ -20317,10 +20317,10 @@
         <v>0</v>
       </c>
       <c r="O288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q288" t="n">
         <v>0</v>
@@ -20355,7 +20355,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F289" t="n">
@@ -20377,7 +20377,7 @@
         <v>0</v>
       </c>
       <c r="L289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M289" t="n">
         <v>0</v>
@@ -20386,10 +20386,10 @@
         <v>0</v>
       </c>
       <c r="O289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q289" t="n">
         <v>0</v>
@@ -20424,7 +20424,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F290" t="n">
@@ -20440,7 +20440,7 @@
         <v>0</v>
       </c>
       <c r="J290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K290" t="n">
         <v>0</v>
@@ -20493,7 +20493,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F291" t="n">
@@ -20527,7 +20527,7 @@
         <v>1</v>
       </c>
       <c r="P291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q291" t="n">
         <v>0</v>
@@ -20562,7 +20562,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F292" t="n">
@@ -20593,10 +20593,10 @@
         <v>0</v>
       </c>
       <c r="O292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q292" t="n">
         <v>0</v>
@@ -20631,7 +20631,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F293" t="n">
@@ -20662,7 +20662,7 @@
         <v>0</v>
       </c>
       <c r="O293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P293" t="n">
         <v>1</v>
@@ -20700,7 +20700,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F294" t="n">
@@ -20722,7 +20722,7 @@
         <v>0</v>
       </c>
       <c r="L294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M294" t="n">
         <v>0</v>
@@ -20769,7 +20769,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F295" t="n">
@@ -20791,7 +20791,7 @@
         <v>0</v>
       </c>
       <c r="L295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M295" t="n">
         <v>0</v>
@@ -20800,7 +20800,7 @@
         <v>0</v>
       </c>
       <c r="O295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P295" t="n">
         <v>0</v>
@@ -20838,7 +20838,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F296" t="n">
@@ -20854,7 +20854,7 @@
         <v>0</v>
       </c>
       <c r="J296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K296" t="n">
         <v>0</v>
@@ -20875,7 +20875,7 @@
         <v>1</v>
       </c>
       <c r="Q296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R296" t="n">
         <v>0</v>
@@ -20907,7 +20907,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F297" t="n">
@@ -20923,7 +20923,7 @@
         <v>0</v>
       </c>
       <c r="J297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K297" t="n">
         <v>0</v>
@@ -20938,13 +20938,13 @@
         <v>0</v>
       </c>
       <c r="O297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R297" t="n">
         <v>0</v>
@@ -20976,7 +20976,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F298" t="n">
@@ -20992,7 +20992,7 @@
         <v>0</v>
       </c>
       <c r="J298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K298" t="n">
         <v>0</v>
@@ -21010,7 +21010,7 @@
         <v>1</v>
       </c>
       <c r="P298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q298" t="n">
         <v>0</v>
@@ -21045,7 +21045,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F299" t="n">
@@ -21076,7 +21076,7 @@
         <v>0</v>
       </c>
       <c r="O299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P299" t="n">
         <v>0</v>
@@ -21114,7 +21114,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F300" t="n">
@@ -21130,7 +21130,7 @@
         <v>0</v>
       </c>
       <c r="J300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K300" t="n">
         <v>0</v>
@@ -21183,7 +21183,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F301" t="n">
@@ -21199,7 +21199,7 @@
         <v>0</v>
       </c>
       <c r="J301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K301" t="n">
         <v>0</v>
@@ -21211,7 +21211,7 @@
         <v>0</v>
       </c>
       <c r="N301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O301" t="n">
         <v>1</v>
@@ -21252,7 +21252,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F302" t="n">
@@ -21268,7 +21268,7 @@
         <v>0</v>
       </c>
       <c r="J302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K302" t="n">
         <v>0</v>
@@ -21321,7 +21321,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F303" t="n">
@@ -21355,7 +21355,7 @@
         <v>0</v>
       </c>
       <c r="P303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q303" t="n">
         <v>0</v>
@@ -21370,7 +21370,7 @@
         <v>0</v>
       </c>
       <c r="U303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -21390,7 +21390,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F304" t="n">
@@ -21424,7 +21424,7 @@
         <v>1</v>
       </c>
       <c r="P304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q304" t="n">
         <v>0</v>
@@ -21459,7 +21459,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F305" t="n">
@@ -21475,7 +21475,7 @@
         <v>0</v>
       </c>
       <c r="J305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K305" t="n">
         <v>0</v>
@@ -21493,7 +21493,7 @@
         <v>1</v>
       </c>
       <c r="P305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q305" t="n">
         <v>0</v>
@@ -21528,7 +21528,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F306" t="n">
@@ -21565,7 +21565,7 @@
         <v>0</v>
       </c>
       <c r="Q306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R306" t="n">
         <v>0</v>
@@ -21597,7 +21597,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F307" t="n">
@@ -21613,13 +21613,13 @@
         <v>0</v>
       </c>
       <c r="J307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K307" t="n">
         <v>0</v>
       </c>
       <c r="L307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M307" t="n">
         <v>0</v>
@@ -21628,7 +21628,7 @@
         <v>0</v>
       </c>
       <c r="O307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P307" t="n">
         <v>1</v>
@@ -21666,7 +21666,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F308" t="n">
@@ -21682,7 +21682,7 @@
         <v>0</v>
       </c>
       <c r="J308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K308" t="n">
         <v>0</v>
@@ -21697,10 +21697,10 @@
         <v>0</v>
       </c>
       <c r="O308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q308" t="n">
         <v>0</v>
@@ -21735,7 +21735,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F309" t="n">
@@ -21751,7 +21751,7 @@
         <v>0</v>
       </c>
       <c r="J309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K309" t="n">
         <v>0</v>
@@ -21766,10 +21766,10 @@
         <v>0</v>
       </c>
       <c r="O309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q309" t="n">
         <v>0</v>
@@ -21804,7 +21804,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F310" t="n">
@@ -21820,7 +21820,7 @@
         <v>0</v>
       </c>
       <c r="J310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K310" t="n">
         <v>0</v>
@@ -21841,7 +21841,7 @@
         <v>0</v>
       </c>
       <c r="Q310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R310" t="n">
         <v>0</v>
@@ -21873,7 +21873,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F311" t="n">
@@ -21889,7 +21889,7 @@
         <v>0</v>
       </c>
       <c r="J311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K311" t="n">
         <v>0</v>
@@ -21904,10 +21904,10 @@
         <v>0</v>
       </c>
       <c r="O311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q311" t="n">
         <v>0</v>
@@ -21942,7 +21942,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F312" t="n">
@@ -21973,10 +21973,10 @@
         <v>0</v>
       </c>
       <c r="O312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q312" t="n">
         <v>0</v>
@@ -22011,7 +22011,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F313" t="n">
@@ -22027,7 +22027,7 @@
         <v>0</v>
       </c>
       <c r="J313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K313" t="n">
         <v>0</v>
@@ -22042,10 +22042,10 @@
         <v>0</v>
       </c>
       <c r="O313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q313" t="n">
         <v>0</v>
@@ -22080,7 +22080,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F314" t="n">
@@ -22111,7 +22111,7 @@
         <v>0</v>
       </c>
       <c r="O314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P314" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F315" t="n">
@@ -22165,7 +22165,7 @@
         <v>0</v>
       </c>
       <c r="J315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K315" t="n">
         <v>0</v>
@@ -22180,7 +22180,7 @@
         <v>0</v>
       </c>
       <c r="O315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P315" t="n">
         <v>0</v>
@@ -22218,7 +22218,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F316" t="n">
@@ -22252,7 +22252,7 @@
         <v>0</v>
       </c>
       <c r="P316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q316" t="n">
         <v>0</v>
@@ -22287,7 +22287,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F317" t="n">
@@ -22356,7 +22356,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F318" t="n">
@@ -22378,7 +22378,7 @@
         <v>0</v>
       </c>
       <c r="L318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M318" t="n">
         <v>0</v>
@@ -22425,7 +22425,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F319" t="n">
@@ -22441,7 +22441,7 @@
         <v>0</v>
       </c>
       <c r="J319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K319" t="n">
         <v>0</v>
@@ -22453,7 +22453,7 @@
         <v>0</v>
       </c>
       <c r="N319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O319" t="n">
         <v>1</v>
@@ -22494,7 +22494,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F320" t="n">
@@ -22510,13 +22510,13 @@
         <v>0</v>
       </c>
       <c r="J320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K320" t="n">
         <v>0</v>
       </c>
       <c r="L320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M320" t="n">
         <v>0</v>
@@ -22531,7 +22531,7 @@
         <v>1</v>
       </c>
       <c r="Q320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R320" t="n">
         <v>0</v>
@@ -22563,7 +22563,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F321" t="n">
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="P321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q321" t="n">
         <v>0</v>
@@ -22632,7 +22632,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F322" t="n">
@@ -22663,10 +22663,10 @@
         <v>0</v>
       </c>
       <c r="O322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q322" t="n">
         <v>0</v>
@@ -22701,7 +22701,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F323" t="n">
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="L323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M323" t="n">
         <v>0</v>
@@ -22735,7 +22735,7 @@
         <v>1</v>
       </c>
       <c r="P323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q323" t="n">
         <v>0</v>
@@ -22770,7 +22770,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F324" t="n">
@@ -22819,7 +22819,7 @@
         <v>0</v>
       </c>
       <c r="U324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -22839,7 +22839,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F325" t="n">
@@ -22908,7 +22908,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F326" t="n">
@@ -22924,7 +22924,7 @@
         <v>0</v>
       </c>
       <c r="J326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K326" t="n">
         <v>0</v>
@@ -22942,7 +22942,7 @@
         <v>0</v>
       </c>
       <c r="P326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q326" t="n">
         <v>0</v>
@@ -22977,7 +22977,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F327" t="n">
@@ -23046,7 +23046,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F328" t="n">
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="L328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M328" t="n">
         <v>0</v>
@@ -23077,7 +23077,7 @@
         <v>0</v>
       </c>
       <c r="O328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P328" t="n">
         <v>0</v>
@@ -23115,7 +23115,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F329" t="n">
@@ -23131,13 +23131,13 @@
         <v>0</v>
       </c>
       <c r="J329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K329" t="n">
         <v>0</v>
       </c>
       <c r="L329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M329" t="n">
         <v>0</v>
@@ -23149,7 +23149,7 @@
         <v>0</v>
       </c>
       <c r="P329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q329" t="n">
         <v>0</v>
@@ -23184,7 +23184,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F330" t="n">
@@ -23212,16 +23212,16 @@
         <v>0</v>
       </c>
       <c r="N330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R330" t="n">
         <v>0</v>
@@ -23253,7 +23253,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F331" t="n">
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="J331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K331" t="n">
         <v>0</v>
@@ -23284,10 +23284,10 @@
         <v>0</v>
       </c>
       <c r="O331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q331" t="n">
         <v>0</v>
@@ -23322,7 +23322,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F332" t="n">
@@ -23391,7 +23391,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F333" t="n">
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="O333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P333" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F334" t="n">
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="J334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K334" t="n">
         <v>0</v>
@@ -23491,10 +23491,10 @@
         <v>0</v>
       </c>
       <c r="O334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q334" t="n">
         <v>0</v>
@@ -23529,7 +23529,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F335" t="n">
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="J335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K335" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="O335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q335" t="n">
         <v>0</v>
@@ -23598,7 +23598,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F336" t="n">
@@ -23614,7 +23614,7 @@
         <v>0</v>
       </c>
       <c r="J336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K336" t="n">
         <v>0</v>
@@ -23629,10 +23629,10 @@
         <v>0</v>
       </c>
       <c r="O336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q336" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F337" t="n">
@@ -23683,7 +23683,7 @@
         <v>0</v>
       </c>
       <c r="J337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K337" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>1</v>
       </c>
       <c r="P337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q337" t="n">
         <v>0</v>
@@ -23736,7 +23736,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F338" t="n">
@@ -23805,7 +23805,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F339" t="n">
@@ -23827,7 +23827,7 @@
         <v>0</v>
       </c>
       <c r="L339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M339" t="n">
         <v>0</v>
@@ -23839,7 +23839,7 @@
         <v>1</v>
       </c>
       <c r="P339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q339" t="n">
         <v>0</v>
@@ -23874,7 +23874,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F340" t="n">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="J340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K340" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="O340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q340" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F341" t="n">
@@ -23959,7 +23959,7 @@
         <v>0</v>
       </c>
       <c r="J341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K341" t="n">
         <v>0</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="O341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P341" t="n">
         <v>0</v>
@@ -24012,7 +24012,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F342" t="n">
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="L342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M342" t="n">
         <v>0</v>
@@ -24043,7 +24043,7 @@
         <v>0</v>
       </c>
       <c r="O342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P342" t="n">
         <v>0</v>
@@ -24081,7 +24081,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F343" t="n">
@@ -24112,7 +24112,7 @@
         <v>0</v>
       </c>
       <c r="O343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P343" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F344" t="n">
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="O344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q344" t="n">
         <v>0</v>
@@ -24219,7 +24219,7 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F345" t="n">
@@ -24235,7 +24235,7 @@
         <v>0</v>
       </c>
       <c r="J345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K345" t="n">
         <v>0</v>
@@ -24288,7 +24288,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F346" t="n">
@@ -24304,7 +24304,7 @@
         <v>0</v>
       </c>
       <c r="J346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K346" t="n">
         <v>0</v>
@@ -24322,7 +24322,7 @@
         <v>1</v>
       </c>
       <c r="P346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q346" t="n">
         <v>0</v>
@@ -24357,7 +24357,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F347" t="n">
@@ -24385,13 +24385,13 @@
         <v>0</v>
       </c>
       <c r="N347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O347" t="n">
         <v>1</v>
       </c>
       <c r="P347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q347" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F348" t="n">
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="L348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M348" t="n">
         <v>0</v>
@@ -24495,7 +24495,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F349" t="n">
@@ -24517,7 +24517,7 @@
         <v>0</v>
       </c>
       <c r="L349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M349" t="n">
         <v>0</v>
@@ -24529,7 +24529,7 @@
         <v>0</v>
       </c>
       <c r="P349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q349" t="n">
         <v>0</v>
@@ -24564,7 +24564,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F350" t="n">
@@ -24580,7 +24580,7 @@
         <v>0</v>
       </c>
       <c r="J350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K350" t="n">
         <v>0</v>
@@ -24592,7 +24592,7 @@
         <v>0</v>
       </c>
       <c r="N350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O350" t="n">
         <v>1</v>
@@ -24633,7 +24633,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F351" t="n">
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="J351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K351" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="P351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q351" t="n">
         <v>0</v>
@@ -24702,7 +24702,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F352" t="n">
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="Q352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R352" t="n">
         <v>0</v>
@@ -24771,7 +24771,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F353" t="n">
@@ -24802,7 +24802,7 @@
         <v>0</v>
       </c>
       <c r="O353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P353" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F354" t="n">
@@ -24909,7 +24909,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F355" t="n">
@@ -24925,13 +24925,13 @@
         <v>0</v>
       </c>
       <c r="J355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K355" t="n">
         <v>0</v>
       </c>
       <c r="L355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M355" t="n">
         <v>0</v>
@@ -24978,7 +24978,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F356" t="n">
@@ -25000,7 +25000,7 @@
         <v>0</v>
       </c>
       <c r="L356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M356" t="n">
         <v>0</v>
@@ -25047,7 +25047,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F357" t="n">
@@ -25063,7 +25063,7 @@
         <v>0</v>
       </c>
       <c r="J357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K357" t="n">
         <v>0</v>
@@ -25116,7 +25116,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F358" t="n">
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="J358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K358" t="n">
         <v>0</v>
@@ -25147,10 +25147,10 @@
         <v>0</v>
       </c>
       <c r="O358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q358" t="n">
         <v>0</v>
@@ -25185,7 +25185,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F359" t="n">
@@ -25219,7 +25219,7 @@
         <v>1</v>
       </c>
       <c r="P359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q359" t="n">
         <v>0</v>
@@ -25254,7 +25254,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F360" t="n">
@@ -25288,7 +25288,7 @@
         <v>1</v>
       </c>
       <c r="P360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q360" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F361" t="n">
@@ -25345,19 +25345,19 @@
         <v>0</v>
       </c>
       <c r="L361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M361" t="n">
         <v>0</v>
       </c>
       <c r="N361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O361" t="n">
         <v>0</v>
       </c>
       <c r="P361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q361" t="n">
         <v>0</v>
@@ -25392,7 +25392,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F362" t="n">
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="J362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K362" t="n">
         <v>0</v>
@@ -25423,13 +25423,13 @@
         <v>0</v>
       </c>
       <c r="O362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P362" t="n">
         <v>0</v>
       </c>
       <c r="Q362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R362" t="n">
         <v>0</v>
@@ -25461,7 +25461,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F363" t="n">
@@ -25477,7 +25477,7 @@
         <v>0</v>
       </c>
       <c r="J363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K363" t="n">
         <v>0</v>
@@ -25492,10 +25492,10 @@
         <v>0</v>
       </c>
       <c r="O363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q363" t="n">
         <v>0</v>
@@ -25530,7 +25530,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F364" t="n">
@@ -25546,7 +25546,7 @@
         <v>0</v>
       </c>
       <c r="J364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K364" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>1</v>
       </c>
       <c r="Q364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R364" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F365" t="n">
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="J365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K365" t="n">
         <v>0</v>
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="O365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R365" t="n">
         <v>0</v>
@@ -25668,7 +25668,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F366" t="n">
@@ -25684,13 +25684,13 @@
         <v>0</v>
       </c>
       <c r="J366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K366" t="n">
         <v>0</v>
       </c>
       <c r="L366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M366" t="n">
         <v>0</v>
@@ -25737,7 +25737,7 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F367" t="n">
@@ -25768,7 +25768,7 @@
         <v>0</v>
       </c>
       <c r="O367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P367" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F368" t="n">
@@ -25822,7 +25822,7 @@
         <v>0</v>
       </c>
       <c r="J368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K368" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="P368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q368" t="n">
         <v>0</v>
@@ -25875,7 +25875,7 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F369" t="n">
@@ -25897,7 +25897,7 @@
         <v>0</v>
       </c>
       <c r="L369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M369" t="n">
         <v>0</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="P369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q369" t="n">
         <v>0</v>
@@ -25944,7 +25944,7 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F370" t="n">
@@ -25966,7 +25966,7 @@
         <v>0</v>
       </c>
       <c r="L370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M370" t="n">
         <v>0</v>
@@ -25975,7 +25975,7 @@
         <v>0</v>
       </c>
       <c r="O370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P370" t="n">
         <v>0</v>
@@ -26013,7 +26013,7 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F371" t="n">
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="J371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K371" t="n">
         <v>0</v>
@@ -26044,10 +26044,10 @@
         <v>0</v>
       </c>
       <c r="O371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q371" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F372" t="n">
@@ -26151,7 +26151,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F373" t="n">
@@ -26167,7 +26167,7 @@
         <v>0</v>
       </c>
       <c r="J373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K373" t="n">
         <v>0</v>
@@ -26220,7 +26220,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F374" t="n">
@@ -26236,7 +26236,7 @@
         <v>0</v>
       </c>
       <c r="J374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K374" t="n">
         <v>0</v>
@@ -26254,7 +26254,7 @@
         <v>1</v>
       </c>
       <c r="P374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q374" t="n">
         <v>0</v>
@@ -26289,7 +26289,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F375" t="n">
@@ -26320,7 +26320,7 @@
         <v>0</v>
       </c>
       <c r="O375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P375" t="n">
         <v>0</v>
@@ -26358,7 +26358,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F376" t="n">
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="O376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q376" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F377" t="n">
@@ -26461,7 +26461,7 @@
         <v>1</v>
       </c>
       <c r="P377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q377" t="n">
         <v>0</v>
@@ -26496,7 +26496,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F378" t="n">
@@ -26512,13 +26512,13 @@
         <v>0</v>
       </c>
       <c r="J378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K378" t="n">
         <v>0</v>
       </c>
       <c r="L378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M378" t="n">
         <v>0</v>
@@ -26530,7 +26530,7 @@
         <v>0</v>
       </c>
       <c r="P378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q378" t="n">
         <v>0</v>
@@ -26565,7 +26565,7 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F379" t="n">
@@ -26599,7 +26599,7 @@
         <v>0</v>
       </c>
       <c r="P379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q379" t="n">
         <v>0</v>
@@ -26634,7 +26634,7 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F380" t="n">
@@ -26662,13 +26662,13 @@
         <v>0</v>
       </c>
       <c r="N380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q380" t="n">
         <v>0</v>
@@ -26703,7 +26703,7 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F381" t="n">
@@ -26772,7 +26772,7 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F382" t="n">
@@ -26788,13 +26788,13 @@
         <v>0</v>
       </c>
       <c r="J382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K382" t="n">
         <v>0</v>
       </c>
       <c r="L382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M382" t="n">
         <v>0</v>
@@ -26809,7 +26809,7 @@
         <v>0</v>
       </c>
       <c r="Q382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R382" t="n">
         <v>0</v>
@@ -26841,7 +26841,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F383" t="n">
@@ -26857,7 +26857,7 @@
         <v>0</v>
       </c>
       <c r="J383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K383" t="n">
         <v>0</v>
@@ -26910,7 +26910,7 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F384" t="n">
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="L384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M384" t="n">
         <v>0</v>
@@ -26941,10 +26941,10 @@
         <v>0</v>
       </c>
       <c r="O384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q384" t="n">
         <v>0</v>
@@ -26979,7 +26979,7 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F385" t="n">
@@ -27016,7 +27016,7 @@
         <v>0</v>
       </c>
       <c r="Q385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R385" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F386" t="n">
@@ -27079,7 +27079,7 @@
         <v>0</v>
       </c>
       <c r="O386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P386" t="n">
         <v>0</v>
@@ -27117,7 +27117,7 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F387" t="n">
@@ -27186,7 +27186,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F388" t="n">
@@ -27217,10 +27217,10 @@
         <v>0</v>
       </c>
       <c r="O388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q388" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F389" t="n">
@@ -27286,7 +27286,7 @@
         <v>0</v>
       </c>
       <c r="O389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P389" t="n">
         <v>0</v>
@@ -27324,7 +27324,7 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F390" t="n">
@@ -27340,7 +27340,7 @@
         <v>0</v>
       </c>
       <c r="J390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K390" t="n">
         <v>0</v>
@@ -27352,16 +27352,16 @@
         <v>0</v>
       </c>
       <c r="N390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O390" t="n">
         <v>1</v>
       </c>
       <c r="P390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R390" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F391" t="n">
@@ -27415,7 +27415,7 @@
         <v>0</v>
       </c>
       <c r="L391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M391" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="O391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q391" t="n">
         <v>0</v>
@@ -27462,7 +27462,7 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F392" t="n">
@@ -27493,10 +27493,10 @@
         <v>0</v>
       </c>
       <c r="O392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q392" t="n">
         <v>0</v>
@@ -27531,7 +27531,7 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F393" t="n">
@@ -27562,10 +27562,10 @@
         <v>0</v>
       </c>
       <c r="O393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q393" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F394" t="n">
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="O394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q394" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F395" t="n">
@@ -27700,7 +27700,7 @@
         <v>0</v>
       </c>
       <c r="O395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P395" t="n">
         <v>0</v>
@@ -27738,7 +27738,7 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F396" t="n">
@@ -27754,7 +27754,7 @@
         <v>0</v>
       </c>
       <c r="J396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K396" t="n">
         <v>0</v>
@@ -27772,7 +27772,7 @@
         <v>0</v>
       </c>
       <c r="P396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q396" t="n">
         <v>0</v>
@@ -27807,7 +27807,7 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F397" t="n">
@@ -27823,7 +27823,7 @@
         <v>0</v>
       </c>
       <c r="J397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K397" t="n">
         <v>0</v>
@@ -27838,10 +27838,10 @@
         <v>0</v>
       </c>
       <c r="O397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q397" t="n">
         <v>0</v>
@@ -27876,7 +27876,7 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F398" t="n">
@@ -27892,7 +27892,7 @@
         <v>0</v>
       </c>
       <c r="J398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K398" t="n">
         <v>0</v>
@@ -27910,10 +27910,10 @@
         <v>1</v>
       </c>
       <c r="P398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R398" t="n">
         <v>0</v>
@@ -27945,7 +27945,7 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F399" t="n">
@@ -27979,7 +27979,7 @@
         <v>1</v>
       </c>
       <c r="P399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q399" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F400" t="n">
@@ -28030,7 +28030,7 @@
         <v>0</v>
       </c>
       <c r="J400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K400" t="n">
         <v>0</v>
@@ -28051,7 +28051,7 @@
         <v>0</v>
       </c>
       <c r="Q400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R400" t="n">
         <v>0</v>
@@ -28083,7 +28083,7 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F401" t="n">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="J401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K401" t="n">
         <v>0</v>
@@ -28120,7 +28120,7 @@
         <v>0</v>
       </c>
       <c r="Q401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R401" t="n">
         <v>0</v>
@@ -28152,7 +28152,7 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F402" t="n">
@@ -28183,10 +28183,10 @@
         <v>0</v>
       </c>
       <c r="O402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q402" t="n">
         <v>0</v>
@@ -28221,7 +28221,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F403" t="n">
@@ -28252,10 +28252,10 @@
         <v>0</v>
       </c>
       <c r="O403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q403" t="n">
         <v>0</v>
@@ -28270,7 +28270,7 @@
         <v>0</v>
       </c>
       <c r="U403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
@@ -28290,7 +28290,7 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F404" t="n">
@@ -28306,7 +28306,7 @@
         <v>0</v>
       </c>
       <c r="J404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K404" t="n">
         <v>0</v>
@@ -28324,10 +28324,10 @@
         <v>1</v>
       </c>
       <c r="P404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R404" t="n">
         <v>0</v>
@@ -28359,7 +28359,7 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F405" t="n">
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="J405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K405" t="n">
         <v>0</v>
@@ -28390,10 +28390,10 @@
         <v>0</v>
       </c>
       <c r="O405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q405" t="n">
         <v>0</v>
@@ -28428,7 +28428,7 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F406" t="n">
@@ -28444,7 +28444,7 @@
         <v>0</v>
       </c>
       <c r="J406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K406" t="n">
         <v>0</v>
@@ -28459,7 +28459,7 @@
         <v>0</v>
       </c>
       <c r="O406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P406" t="n">
         <v>0</v>
@@ -28497,7 +28497,7 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F407" t="n">
@@ -28525,7 +28525,7 @@
         <v>0</v>
       </c>
       <c r="N407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O407" t="n">
         <v>1</v>
@@ -28566,7 +28566,7 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F408" t="n">
@@ -28588,7 +28588,7 @@
         <v>0</v>
       </c>
       <c r="L408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M408" t="n">
         <v>0</v>
@@ -28635,7 +28635,7 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F409" t="n">
@@ -28651,7 +28651,7 @@
         <v>0</v>
       </c>
       <c r="J409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K409" t="n">
         <v>0</v>
@@ -28669,7 +28669,7 @@
         <v>1</v>
       </c>
       <c r="P409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q409" t="n">
         <v>0</v>
@@ -28704,7 +28704,7 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F410" t="n">
@@ -28720,7 +28720,7 @@
         <v>0</v>
       </c>
       <c r="J410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K410" t="n">
         <v>0</v>
@@ -28735,10 +28735,10 @@
         <v>0</v>
       </c>
       <c r="O410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q410" t="n">
         <v>0</v>
@@ -28773,7 +28773,7 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F411" t="n">
@@ -28789,7 +28789,7 @@
         <v>0</v>
       </c>
       <c r="J411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K411" t="n">
         <v>0</v>
@@ -28842,7 +28842,7 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F412" t="n">
@@ -28858,13 +28858,13 @@
         <v>0</v>
       </c>
       <c r="J412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K412" t="n">
         <v>0</v>
       </c>
       <c r="L412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M412" t="n">
         <v>0</v>
@@ -28876,7 +28876,7 @@
         <v>0</v>
       </c>
       <c r="P412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q412" t="n">
         <v>0</v>
@@ -28911,7 +28911,7 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F413" t="n">
@@ -28942,7 +28942,7 @@
         <v>0</v>
       </c>
       <c r="O413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P413" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F414" t="n">
@@ -29002,7 +29002,7 @@
         <v>0</v>
       </c>
       <c r="L414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M414" t="n">
         <v>0</v>
@@ -29014,7 +29014,7 @@
         <v>0</v>
       </c>
       <c r="P414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q414" t="n">
         <v>0</v>
@@ -29049,7 +29049,7 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F415" t="n">
@@ -29071,7 +29071,7 @@
         <v>0</v>
       </c>
       <c r="L415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M415" t="n">
         <v>0</v>
@@ -29080,7 +29080,7 @@
         <v>0</v>
       </c>
       <c r="O415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P415" t="n">
         <v>1</v>
@@ -29118,7 +29118,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F416" t="n">
@@ -29134,7 +29134,7 @@
         <v>0</v>
       </c>
       <c r="J416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K416" t="n">
         <v>0</v>
@@ -29152,10 +29152,10 @@
         <v>1</v>
       </c>
       <c r="P416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R416" t="n">
         <v>0</v>
@@ -29187,7 +29187,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F417" t="n">
@@ -29215,7 +29215,7 @@
         <v>0</v>
       </c>
       <c r="N417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O417" t="n">
         <v>1</v>
@@ -29256,7 +29256,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F418" t="n">
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="L418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M418" t="n">
         <v>0</v>
@@ -29287,10 +29287,10 @@
         <v>0</v>
       </c>
       <c r="O418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q418" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F419" t="n">
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="J419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K419" t="n">
         <v>0</v>
@@ -29359,7 +29359,7 @@
         <v>1</v>
       </c>
       <c r="P419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q419" t="n">
         <v>0</v>
@@ -29394,7 +29394,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F420" t="n">
@@ -29410,7 +29410,7 @@
         <v>0</v>
       </c>
       <c r="J420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K420" t="n">
         <v>0</v>
@@ -29425,7 +29425,7 @@
         <v>0</v>
       </c>
       <c r="O420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P420" t="n">
         <v>1</v>
@@ -29463,7 +29463,7 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F421" t="n">
@@ -29479,7 +29479,7 @@
         <v>0</v>
       </c>
       <c r="J421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K421" t="n">
         <v>0</v>
@@ -29532,7 +29532,7 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F422" t="n">
@@ -29563,10 +29563,10 @@
         <v>0</v>
       </c>
       <c r="O422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q422" t="n">
         <v>0</v>
@@ -29601,7 +29601,7 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F423" t="n">
@@ -29635,7 +29635,7 @@
         <v>1</v>
       </c>
       <c r="P423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q423" t="n">
         <v>0</v>
@@ -29670,7 +29670,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F424" t="n">
@@ -29701,13 +29701,13 @@
         <v>0</v>
       </c>
       <c r="O424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P424" t="n">
         <v>0</v>
       </c>
       <c r="Q424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R424" t="n">
         <v>0</v>
@@ -29739,7 +29739,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F425" t="n">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="L425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M425" t="n">
         <v>0</v>
@@ -29808,7 +29808,7 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F426" t="n">
@@ -29821,7 +29821,7 @@
       </c>
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J426" t="n">
         <v>0</v>
@@ -29877,7 +29877,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F427" t="n">
@@ -29946,7 +29946,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F428" t="n">
@@ -29968,7 +29968,7 @@
         <v>0</v>
       </c>
       <c r="L428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M428" t="n">
         <v>0</v>
@@ -30015,7 +30015,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F429" t="n">
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="J429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K429" t="n">
         <v>0</v>
@@ -30046,13 +30046,13 @@
         <v>0</v>
       </c>
       <c r="O429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P429" t="n">
         <v>0</v>
       </c>
       <c r="Q429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R429" t="n">
         <v>0</v>
@@ -30084,7 +30084,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F430" t="n">
@@ -30106,7 +30106,7 @@
         <v>0</v>
       </c>
       <c r="L430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M430" t="n">
         <v>0</v>
@@ -30115,10 +30115,10 @@
         <v>0</v>
       </c>
       <c r="O430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q430" t="n">
         <v>0</v>
@@ -30153,7 +30153,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F431" t="n">
@@ -30184,7 +30184,7 @@
         <v>0</v>
       </c>
       <c r="O431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P431" t="n">
         <v>1</v>
@@ -30222,7 +30222,7 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F432" t="n">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="J432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K432" t="n">
         <v>0</v>
@@ -30253,7 +30253,7 @@
         <v>0</v>
       </c>
       <c r="O432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P432" t="n">
         <v>1</v>
@@ -30291,7 +30291,7 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F433" t="n">
@@ -30313,7 +30313,7 @@
         <v>0</v>
       </c>
       <c r="L433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M433" t="n">
         <v>0</v>
@@ -30322,10 +30322,10 @@
         <v>0</v>
       </c>
       <c r="O433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q433" t="n">
         <v>0</v>
@@ -30360,7 +30360,7 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F434" t="n">
@@ -30391,7 +30391,7 @@
         <v>0</v>
       </c>
       <c r="O434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P434" t="n">
         <v>0</v>
@@ -30429,7 +30429,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F435" t="n">
@@ -30451,7 +30451,7 @@
         <v>0</v>
       </c>
       <c r="L435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M435" t="n">
         <v>0</v>
@@ -30498,7 +30498,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F436" t="n">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="J436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K436" t="n">
         <v>0</v>
@@ -30532,7 +30532,7 @@
         <v>1</v>
       </c>
       <c r="P436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q436" t="n">
         <v>0</v>
@@ -30567,7 +30567,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F437" t="n">
@@ -30636,7 +30636,7 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F438" t="n">
@@ -30667,7 +30667,7 @@
         <v>0</v>
       </c>
       <c r="O438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P438" t="n">
         <v>1</v>
@@ -30705,7 +30705,7 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F439" t="n">
@@ -30721,7 +30721,7 @@
         <v>0</v>
       </c>
       <c r="J439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K439" t="n">
         <v>0</v>
@@ -30736,10 +30736,10 @@
         <v>0</v>
       </c>
       <c r="O439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q439" t="n">
         <v>0</v>
@@ -30774,7 +30774,7 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F440" t="n">
@@ -30808,7 +30808,7 @@
         <v>0</v>
       </c>
       <c r="P440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q440" t="n">
         <v>0</v>
@@ -30843,7 +30843,7 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F441" t="n">
@@ -30912,7 +30912,7 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F442" t="n">
@@ -30946,7 +30946,7 @@
         <v>1</v>
       </c>
       <c r="P442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q442" t="n">
         <v>0</v>
@@ -30981,7 +30981,7 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F443" t="n">
@@ -31015,7 +31015,7 @@
         <v>0</v>
       </c>
       <c r="P443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q443" t="n">
         <v>0</v>
@@ -31050,7 +31050,7 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F444" t="n">
@@ -31078,16 +31078,16 @@
         <v>0</v>
       </c>
       <c r="N444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R444" t="n">
         <v>0</v>
@@ -31119,7 +31119,7 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F445" t="n">
@@ -31188,7 +31188,7 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F446" t="n">
@@ -31210,7 +31210,7 @@
         <v>0</v>
       </c>
       <c r="L446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M446" t="n">
         <v>0</v>
@@ -31257,7 +31257,7 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F447" t="n">
@@ -31326,7 +31326,7 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F448" t="n">
@@ -31357,10 +31357,10 @@
         <v>0</v>
       </c>
       <c r="O448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q448" t="n">
         <v>0</v>
@@ -31375,7 +31375,7 @@
         <v>0</v>
       </c>
       <c r="U448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
@@ -31395,7 +31395,7 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F449" t="n">
@@ -31417,7 +31417,7 @@
         <v>0</v>
       </c>
       <c r="L449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M449" t="n">
         <v>0</v>
@@ -31464,7 +31464,7 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F450" t="n">
@@ -31480,7 +31480,7 @@
         <v>0</v>
       </c>
       <c r="J450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K450" t="n">
         <v>0</v>
@@ -31498,7 +31498,7 @@
         <v>1</v>
       </c>
       <c r="P450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q450" t="n">
         <v>0</v>
@@ -31533,7 +31533,7 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F451" t="n">
@@ -31564,7 +31564,7 @@
         <v>0</v>
       </c>
       <c r="O451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P451" t="n">
         <v>0</v>
@@ -31602,7 +31602,7 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F452" t="n">
@@ -31618,7 +31618,7 @@
         <v>0</v>
       </c>
       <c r="J452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K452" t="n">
         <v>0</v>
@@ -31630,13 +31630,13 @@
         <v>0</v>
       </c>
       <c r="N452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O452" t="n">
         <v>1</v>
       </c>
       <c r="P452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q452" t="n">
         <v>0</v>
@@ -31671,7 +31671,7 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F453" t="n">
@@ -31702,7 +31702,7 @@
         <v>0</v>
       </c>
       <c r="O453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P453" t="n">
         <v>1</v>
@@ -31740,7 +31740,7 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F454" t="n">
@@ -31771,10 +31771,10 @@
         <v>0</v>
       </c>
       <c r="O454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q454" t="n">
         <v>0</v>
@@ -31809,7 +31809,7 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F455" t="n">
@@ -31843,7 +31843,7 @@
         <v>0</v>
       </c>
       <c r="P455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q455" t="n">
         <v>0</v>
@@ -31878,7 +31878,7 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F456" t="n">
@@ -31894,13 +31894,13 @@
         <v>0</v>
       </c>
       <c r="J456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K456" t="n">
         <v>0</v>
       </c>
       <c r="L456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M456" t="n">
         <v>0</v>
@@ -31912,7 +31912,7 @@
         <v>0</v>
       </c>
       <c r="P456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q456" t="n">
         <v>0</v>
@@ -31947,7 +31947,7 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="F457" t="n">
@@ -31969,7 +31969,7 @@
         <v>0</v>
       </c>
       <c r="L457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M457" t="n">
         <v>0</v>
@@ -31978,10 +31978,10 @@
         <v>0</v>
       </c>
       <c r="O457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q457" t="n">
         <v>0</v>
